--- a/0-Update/Templates/BC_QuanLyThuChi_ChiTiet.xlsx
+++ b/0-Update/Templates/BC_QuanLyThuChi_ChiTiet.xlsx
@@ -245,7 +245,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -262,7 +262,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -293,6 +292,24 @@
     <xf numFmtId="166" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -302,43 +319,31 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -625,7 +630,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -641,112 +646,120 @@
     <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="8" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:8" s="35" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="24"/>
-      <c r="E1" s="29" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="19"/>
+      <c r="E1" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="19"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="24"/>
     </row>
-    <row r="2" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:8" s="35" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="E2" s="30" t="s">
+      <c r="B2" s="32"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="20"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="25"/>
     </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="9"/>
-      <c r="E3" s="31" t="s">
+    <row r="3" spans="1:8" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="21"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="26"/>
     </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="9"/>
-      <c r="E4" s="33" t="s">
+    <row r="4" spans="1:8" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="34" t="s">
+      <c r="F4" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="22"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="26"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
+    <row r="7" spans="1:8" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="17" t="s">
+      <c r="H7" s="16" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="32" t="s">
+    <row r="8" spans="1:8" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="32"/>
+      <c r="B8" s="31"/>
       <c r="C8" s="6"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="27">
+      <c r="D8" s="18"/>
+      <c r="E8" s="22">
         <f>SUM(E7:E7)</f>
         <v>0</v>
       </c>
@@ -755,7 +768,7 @@
       <c r="H8" s="5"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H10" s="25" t="s">
+      <c r="H10" s="20" t="s">
         <v>3</v>
       </c>
     </row>
